--- a/parabolic/2025/09/16/parabolic.xlsx
+++ b/parabolic/2025/09/16/parabolic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,10 +482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D2" t="n">
-        <v>115300</v>
+        <v>184900</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="D3" t="n">
-        <v>6392200</v>
+        <v>8347800</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -531,7 +531,7 @@
         <v>990</v>
       </c>
       <c r="D4" t="n">
-        <v>111700</v>
+        <v>289900</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D5" t="n">
-        <v>2247900</v>
+        <v>2822600</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="D6" t="n">
-        <v>118800</v>
+        <v>283200</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" t="n">
-        <v>989400</v>
+        <v>1844200</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,7 +611,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>4375</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>604</v>
+        <v>926</v>
       </c>
       <c r="D8" t="n">
-        <v>138800</v>
+        <v>169200</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -634,7 +634,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>5707</t>
+          <t>4397</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>685</v>
+        <v>604</v>
       </c>
       <c r="D9" t="n">
-        <v>210200</v>
+        <v>205100</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>6334</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -666,16 +666,200 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>370</v>
+        <v>298</v>
       </c>
       <c r="D10" t="n">
-        <v>751500</v>
+        <v>120000</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>4714</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>225</v>
+      </c>
+      <c r="D11" t="n">
+        <v>625700</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>5707</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>687</v>
+      </c>
+      <c r="D12" t="n">
+        <v>423100</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>6334</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>348</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1357300</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>6775</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>133</v>
+      </c>
+      <c r="D14" t="n">
+        <v>350400</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>6955</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>404</v>
+      </c>
+      <c r="D15" t="n">
+        <v>257800</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>6962</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>604</v>
+      </c>
+      <c r="D16" t="n">
+        <v>239400</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>7354</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>306</v>
+      </c>
+      <c r="D17" t="n">
+        <v>208800</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>8622</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-09-16</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>566</v>
+      </c>
+      <c r="D18" t="n">
+        <v>298100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/parabolic/2025/09/16/parabolic.xlsx
+++ b/parabolic/2025/09/16/parabolic.xlsx
@@ -623,7 +623,7 @@
         <v>926</v>
       </c>
       <c r="D8" t="n">
-        <v>169200</v>
+        <v>150400</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -646,7 +646,7 @@
         <v>604</v>
       </c>
       <c r="D9" t="n">
-        <v>205100</v>
+        <v>201800</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -692,7 +692,7 @@
         <v>225</v>
       </c>
       <c r="D11" t="n">
-        <v>625700</v>
+        <v>530000</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
